--- a/data/income_statement/2digits/size/79_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/79_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>79-Travel agency, tour operator and other reservation service and related activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>79-Travel agency, tour operator and other reservation service and related activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1127 +841,1272 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1998334.225</v>
+        <v>2067520.48656</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>2281246.81076</v>
+        <v>2364493.21626</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2784536.9928</v>
+        <v>2872721.12361</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2836590.14234</v>
+        <v>2920279.00201</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3023474.18097</v>
+        <v>3126189.83085</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3385367.14025</v>
+        <v>3488193.83135</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3995868.03704</v>
+        <v>4138515.89657</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3553498.99943</v>
+        <v>3708534.45894</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>4133654.65393</v>
+        <v>4310736.29698</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>8554776.172699999</v>
+        <v>8826460.838030001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>9086395.92417</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>9576024.612849999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>5124720.624</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1439405.7715</v>
+        <v>1493302.57902</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1642821.791</v>
+        <v>1704193.86666</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1924793.33022</v>
+        <v>1997876.24052</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1926737.75158</v>
+        <v>1997347.17515</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2049303.98204</v>
+        <v>2115809.14717</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2261283.57525</v>
+        <v>2342004.2462</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2531701.6585</v>
+        <v>2641553.59869</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2524040.64155</v>
+        <v>2642242.18126</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>2775056.91347</v>
+        <v>2916654.91995</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>5654252.72566</v>
+        <v>5866127.08075</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>6294142.43583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6648304.031400001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>3695618.009</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>497120.54817</v>
+        <v>505163.71348</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>583462.07738</v>
+        <v>595994.50845</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>775638.1342000001</v>
+        <v>784958.3758799999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>830245.7990100001</v>
+        <v>837046.25277</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>915851.82748</v>
+        <v>943675.57406</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1056152.86727</v>
+        <v>1070296.56894</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1387158.65404</v>
+        <v>1406120.70304</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>944759.32836</v>
+        <v>970711.37626</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1269982.56874</v>
+        <v>1291670.80212</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2742914.02529</v>
+        <v>2775497.45588</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2616641.639229999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2715708.16652</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1274218.063</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>61807.90533</v>
+        <v>69054.19406000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>54962.94237999999</v>
+        <v>64304.84115</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>84105.52837999999</v>
+        <v>89886.50721</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>79606.59175000001</v>
+        <v>85885.57408999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>58318.37145000001</v>
+        <v>66705.10962</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>67930.69773</v>
+        <v>75893.01621</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>77007.7245</v>
+        <v>90841.59484000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>84699.02952</v>
+        <v>95580.90141999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>88615.17172</v>
+        <v>102410.57491</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>157609.42175</v>
+        <v>184836.3014</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>175611.84911</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>212012.41493</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>154884.552</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>8581.68211</v>
+        <v>9825.62083</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>10313.84001</v>
+        <v>10908.90882</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>13535.17808</v>
+        <v>15139.94916</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>12948.52022</v>
+        <v>13246.61355</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>15910.10242</v>
+        <v>34110.143</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>11540.08728</v>
+        <v>12429.47778</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>15539.95027</v>
+        <v>15832.31206</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>16402.60439</v>
+        <v>17951.45168</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>13276.07554</v>
+        <v>14791.45212</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>50553.98157</v>
+        <v>68235.45778</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>78513.37712</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>90018.67892999999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>125088.02</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>7288.66134</v>
+        <v>8371.98798</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>8941.12241</v>
+        <v>9396.75771</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>12506.13449</v>
+        <v>13616.59906</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>11586.61237</v>
+        <v>11860.2506</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>15298.55814</v>
+        <v>15595.90835</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>10759.2564</v>
+        <v>11574.9711</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>14278.02311</v>
+        <v>14506.45617</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>14097.94743</v>
+        <v>15619.57097</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>11769.87452</v>
+        <v>13223.01725</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>46086.83935</v>
+        <v>63623.19545000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>68818.31305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>80195.34529000001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>111653.433</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1087.98857</v>
+        <v>1247.44937</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>765.9316899999999</v>
+        <v>871.8186899999999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>765.02447</v>
+        <v>874.3693300000001</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>713.9222100000001</v>
+        <v>738.3773100000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>344.46847</v>
+        <v>507.66618</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>642.5155600000001</v>
+        <v>708.8078099999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>239.30096</v>
+        <v>302.86241</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>264.95598</v>
+        <v>278.69744</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1323.90949</v>
+        <v>1383.70997</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>3430.09689</v>
+        <v>3472.07215</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>432.14974</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>465.15869</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>8984.143</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>205.0322</v>
+        <v>206.18348</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>606.7859100000001</v>
+        <v>640.3324200000001</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>264.01912</v>
+        <v>648.98077</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>647.98564</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>267.07581</v>
+        <v>18006.56847</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>138.31532</v>
+        <v>145.69887</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1022.6262</v>
+        <v>1022.99348</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>2039.70098</v>
+        <v>2053.18327</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>182.29153</v>
+        <v>184.7249</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1037.04533</v>
+        <v>1140.19018</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>9262.91433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>9358.174949999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>4450.444</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1989752.54289</v>
+        <v>2057694.86573</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2270932.97075</v>
+        <v>2353584.30744</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2771001.81472</v>
+        <v>2857581.17445</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2823641.62212</v>
+        <v>2907032.38846</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3007564.07855</v>
+        <v>3092079.68785</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3373827.05297</v>
+        <v>3475764.35357</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3980328.08677</v>
+        <v>4122683.58451</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3537096.39504</v>
+        <v>3690583.00726</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>4120378.57839</v>
+        <v>4295944.84486</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>8504222.191129999</v>
+        <v>8758225.380249999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>9007882.547050001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>9486005.93392</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>4999632.604</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1666293.93167</v>
+        <v>1710053.67435</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1926951.11519</v>
+        <v>1972467.24981</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2382123.04977</v>
+        <v>2431521.64237</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2418977.25969</v>
+        <v>2467811.72551</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2605952.28129</v>
+        <v>2670646.29399</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2951967.09172</v>
+        <v>3025485.7368</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3517478.27065</v>
+        <v>3616641.8407</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3101979.29714</v>
+        <v>3211066.06335</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>3640175.07041</v>
+        <v>3759186.5451</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>7578873.4056</v>
+        <v>7762065.120599999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>8043294.618729999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>8449058.605420001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4454470.08</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>28115.26335</v>
+        <v>33618.80392</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>17195.16559</v>
+        <v>20161.47654</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>21232.0229</v>
+        <v>24966.82997</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>12077.07707</v>
+        <v>15567.56826</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>18760.35644</v>
+        <v>20645.008</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>30105.5174</v>
+        <v>33381.27576</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>23784.58007</v>
+        <v>26688.18393</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>19104.23486</v>
+        <v>20920.16564</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>27567.92283</v>
+        <v>29554.18677</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>57847.92014</v>
+        <v>61477.20333</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>61320.56466</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>69581.02389</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>68417.272</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>260365.45443</v>
+        <v>265966.51774</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>256815.02327</v>
+        <v>262878.22355</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>251238.93788</v>
+        <v>259546.8052</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>272724.65938</v>
+        <v>284034.07321</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>271836.04371</v>
+        <v>283478.57162</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>362275.09367</v>
+        <v>372735.34149</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>332210.97297</v>
+        <v>344650.44598</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>375448.30786</v>
+        <v>386916.66547</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>286048.0288499999</v>
+        <v>300989.84971</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>659356.5048</v>
+        <v>687898.2423599999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>791481.4306500001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>833817.1476400001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>861032.355</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1371803.46436</v>
+        <v>1404340.0816</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1645914.35141</v>
+        <v>1682121.1101</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2103709.35396</v>
+        <v>2141048.23828</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2128546.34981</v>
+        <v>2162209.28095</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2304036.58682</v>
+        <v>2354102.89535</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2551623.61708</v>
+        <v>2610746.83319</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2984064.05799</v>
+        <v>3066189.35139</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2688080.20022</v>
+        <v>2781669.08709</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>3309797.65001</v>
+        <v>3409609.74078</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>6826460.533570001</v>
+        <v>6974027.66884</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>7151727.574639999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>7503303.814350001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3473002.331</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>6009.74953</v>
+        <v>6128.27109</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>7026.574920000001</v>
+        <v>7306.43962</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>5942.73503</v>
+        <v>5959.76892</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>5629.17343</v>
+        <v>6000.803089999999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>11319.29432</v>
+        <v>12419.81902</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>7962.86357</v>
+        <v>8622.28636</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>177418.65962</v>
+        <v>179113.8594</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>19346.5542</v>
+        <v>21560.14515</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>16761.46872</v>
+        <v>19032.76784</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>35208.44708999999</v>
+        <v>38662.00607</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>38765.04878</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>42356.61954</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>52018.122</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>323458.61122</v>
+        <v>347641.19138</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>343981.85556</v>
+        <v>381117.05763</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>388878.76495</v>
+        <v>426059.53208</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>404664.36243</v>
+        <v>439220.66295</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>401611.79726</v>
+        <v>421433.39386</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>421859.96125</v>
+        <v>450278.61677</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>462849.81612</v>
+        <v>506041.74381</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>435117.0979</v>
+        <v>479516.94391</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>480203.50798</v>
+        <v>536758.29976</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>925348.78553</v>
+        <v>996160.25965</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>964587.9283199999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1036947.3285</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>545162.524</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>319002.83286</v>
+        <v>383159.51964</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>343707.41831</v>
+        <v>400062.02837</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>397995.00864</v>
+        <v>458431.25717</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>430497.86071</v>
+        <v>486742.9386000001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>438376.15259</v>
+        <v>492053.52612</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>466127.57886</v>
+        <v>528197.76243</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>527699.88218</v>
+        <v>610480.5135700001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>541111.81235</v>
+        <v>639604.20698</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>566928.01636</v>
+        <v>664495.15251</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1019185.19045</v>
+        <v>1122227.25524</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1115213.11678</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1270658.04696</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1079836.393</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>1467.4217</v>
+        <v>1513.26962</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>2971.88307</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>5926.59875</v>
+        <v>5943.41875</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>7536.37891</v>
+        <v>7536.94491</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1492.41624</v>
+        <v>1499.14362</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>941.92818</v>
+        <v>975.85765</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>1330.74469</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1344.68096</v>
+        <v>1345.12096</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>2500.20308</v>
+        <v>2711.05115</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>2112.71371</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>99.00113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1068.90063</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>5601.524</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>48368.29738</v>
+        <v>50233.59222</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>56303.49993</v>
+        <v>58529.48705</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>47910.80942000001</v>
+        <v>50534.61558</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>52717.89348</v>
+        <v>55740.87814</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>59541.85964</v>
+        <v>61798.70258</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>58448.48072</v>
+        <v>63159.6119</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>77588.11606</v>
+        <v>83036.65879999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>64910.18455</v>
+        <v>72258.98645</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>79634.46238999999</v>
+        <v>86444.45479</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>170872.36305</v>
+        <v>178773.02486</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>164612.99676</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>182465.7069</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>115569.157</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>269167.11378</v>
+        <v>331412.6578</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>284432.03531</v>
+        <v>338560.65825</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>344157.60047</v>
+        <v>401953.22284</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>370243.58832</v>
+        <v>423465.1155499999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>377341.87671</v>
+        <v>428755.67992</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>406737.16996</v>
+        <v>464062.29288</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>448781.02143</v>
+        <v>526113.11008</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>474856.94684</v>
+        <v>566000.0995700001</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>484793.35089</v>
+        <v>575339.6465700001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>846200.1136899999</v>
+        <v>941341.5166699999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>950501.11889</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1087123.43943</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>958665.7120000001</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>4455.778359999999</v>
+        <v>-35518.32825999999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>274.43725</v>
+        <v>-18944.97074</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-9116.243690000001</v>
+        <v>-32371.72509</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-25833.49828</v>
+        <v>-47522.27565</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-36764.35533</v>
+        <v>-70620.13226</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-44267.61761</v>
+        <v>-77919.14566000001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-64850.06606</v>
+        <v>-104438.76976</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-105994.71445</v>
+        <v>-160087.26307</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-86724.50838</v>
+        <v>-127736.85275</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-93836.40492</v>
+        <v>-126066.99559</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-150625.18846</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-233710.71846</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-534673.8689999999</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>28137.77339</v>
+        <v>114969.42001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>28876.86752</v>
+        <v>446315.62194</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>40382.52391</v>
+        <v>184321.72887</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>25822.3543</v>
+        <v>278314.16745</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>35938.27672</v>
+        <v>150558.80345</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>36396.19583</v>
+        <v>158098.35674</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>48033.34169</v>
+        <v>176102.48491</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>37627.01797</v>
+        <v>181705.0817</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>46205.36876999999</v>
+        <v>166182.27597</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>234170.02974</v>
+        <v>474591.84317</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>120457.58072</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>621649.4955200001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1130533.38</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>917.2134700000001</v>
+        <v>19489.67139</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>402.59039</v>
+        <v>105567.78782</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>1268.89995</v>
+        <v>58334.62869</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>64.52647</v>
+        <v>56476.1631</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>8.1769</v>
+        <v>2411.7906</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>15.4778</v>
+        <v>4905.07404</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>11.82058</v>
+        <v>7119.79652</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>8.88866</v>
+        <v>19215.43955</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>12.89407</v>
+        <v>11219.92012</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>696.79657</v>
+        <v>7032.71555</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>241.03918</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>12392.66677</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>12636.477</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>0.001</v>
+        <v>3385.74474</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>43.16976</v>
+        <v>234.67238</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>0</v>
+        <v>777.8342700000001</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>6093.25151</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>328.43982</v>
+        <v>774.0073000000001</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0</v>
+        <v>7911.74495</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>9.34003</v>
+        <v>10658.26893</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>22386.88586</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
+        <v>5161.88456</v>
+      </c>
+      <c r="M27" s="48" t="n">
+        <v>18612.9852</v>
+      </c>
+      <c r="N27" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="M27" s="48" t="n">
-        <v>28.359</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>2151.81778</v>
+        <v>11147.58704</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1899.56946</v>
+        <v>8458.260890000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1779.5592</v>
+        <v>11796.87344</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>2154.01687</v>
+        <v>14057.89354</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1731.38503</v>
+        <v>21705.02615</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>2064.36831</v>
+        <v>16605.02564</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2090.54002</v>
+        <v>16764.20463</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2494.53643</v>
+        <v>20586.43073</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>2932.28126</v>
+        <v>21773.4267</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>9379.34899</v>
+        <v>47317.28959</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>11343.52307</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>47096.87156</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>39091.268</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>4845.87424</v>
+        <v>4905.090770000001</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>6348.697429999999</v>
+        <v>6555.8005</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>6744.314969999999</v>
+        <v>6968.54226</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>6397.445720000001</v>
+        <v>6400.463170000001</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>7001.379989999999</v>
+        <v>7010.34893</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>6161.404259999999</v>
+        <v>8424.956189999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>5017.82806</v>
+        <v>9292.59037</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>7003.93152</v>
+        <v>11597.77275</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>8068.822639999999</v>
+        <v>14198.88025</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>13835.9431</v>
+        <v>20854.55518</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>8963.005929999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>10670.86199</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>8731.940000000001</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>198.11772</v>
+        <v>855.78236</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>105.86155</v>
+        <v>242.081</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>433.18105</v>
+        <v>883.9230699999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>487.9003</v>
+        <v>579.37441</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>76.27822999999999</v>
+        <v>2693.04052</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>159.9204</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>53.74439</v>
+        <v>139.94039</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>262.37023</v>
+        <v>452.87023</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1136.51255</v>
+        <v>2590.10462</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>534.21341</v>
+        <v>607.77556</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>3604.16488</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>35600.60841</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>2014.946</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1429.08676</v>
+        <v>5425.07202</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>306.03946</v>
+        <v>1302.71034</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>419.5526</v>
+        <v>7355.35347</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>360.8965899999999</v>
+        <v>1492.84013</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>104.64474</v>
+        <v>1296.57147</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>246.94323</v>
+        <v>5444.409509999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>236.07791</v>
+        <v>2340.18124</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>258.82289</v>
+        <v>1546.90072</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>132.53389</v>
+        <v>7180.96477</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>587.0792</v>
+        <v>2502.79709</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1115.10048</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>4887.89405</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>14370.846</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>12366.53078</v>
+        <v>41335.9505</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>11998.76082</v>
+        <v>40850.0755</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>22513.92467</v>
+        <v>55062.94057</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>9757.56244</v>
+        <v>55997.45612</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>18156.32035</v>
+        <v>90121.38670999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>20302.41713</v>
+        <v>72884.39390000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>29845.2448</v>
+        <v>87083.486</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>16889.73466</v>
+        <v>72249.62861</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>22476.95386</v>
+        <v>79078.48796000001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>184042.68468</v>
+        <v>334064.59338</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>68540.99537</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>410268.2116</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>958614.559</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>9.734129999999999</v>
+        <v>293.856</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>13.98129</v>
+        <v>16.52372</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>48.60584</v>
+        <v>58.3149</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>30.60053</v>
+        <v>869.7165600000001</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>41.67833</v>
+        <v>42.17033</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>19.50095</v>
+        <v>22.93339</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>30.36125</v>
+        <v>1647.42415</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>18.19364</v>
@@ -2069,331 +2115,376 @@
         <v>1.6</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>7.953</v>
+        <v>1812.03779</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>4.06642</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>77.185</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>4.78121</v>
+        <v>19.86814</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>4.183050000000001</v>
+        <v>28.15964</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>1.33552</v>
+        <v>44.84017</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>40.87633</v>
+        <v>47.73704</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>119.26212</v>
+        <v>141.92107</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>35.29473</v>
+        <v>53.36793</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>2.4197</v>
+        <v>22.64994</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>1.79895</v>
+        <v>19.76762</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>57.24003</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>26.94495</v>
+        <v>72.02112</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>15.36298</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>325.315</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>6214.6163</v>
+        <v>28110.79705</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>7754.01431</v>
+        <v>283059.55015</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>7173.15011</v>
+        <v>43038.47803</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>6528.52905</v>
+        <v>136299.27187</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>8370.711209999999</v>
+        <v>24362.54037</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>7390.869019999999</v>
+        <v>41686.53079</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>10735.96495</v>
+        <v>41033.94273999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>10688.74099</v>
+        <v>33631.19199</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>11386.53047</v>
+        <v>30081.65152</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>25059.06584</v>
+        <v>55166.17335</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>26601.96341</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>82099.96653999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>94670.844</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>20635.18728</v>
+        <v>58054.81215</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>20724.76492</v>
+        <v>50979.95551000001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>29061.10224</v>
+        <v>277005.77687</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>15884.85875</v>
+        <v>51437.65386</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>21015.40456</v>
+        <v>89524.84825</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>39291.457</v>
+        <v>109132.37154</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>30447.64493</v>
+        <v>101030.67819</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>23874.16326</v>
+        <v>97710.68515999999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>31070.95804</v>
+        <v>113490.50351</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>196610.79701</v>
+        <v>431353.02999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>79056.23449</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>626123.88255</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1209462.946</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>5182.53944</v>
+        <v>5371.92458</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>5431.56119</v>
+        <v>5504.99146</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>3395.57705</v>
+        <v>3475.63969</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1875.59195</v>
+        <v>1889.80922</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1365.00119</v>
+        <v>1435.53057</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1029.52654</v>
+        <v>2688.56937</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>989.80192</v>
+        <v>4748.856690000001</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1149.04386</v>
+        <v>5213.00447</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1431.99834</v>
+        <v>5363.90391</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>3402.57327</v>
+        <v>9656.050360000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>3742.08079</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>4504.11628</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>5377.567</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1164.50819</v>
+        <v>2068.6182</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>483.118</v>
+        <v>1114.40414</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>2799.88222</v>
+        <v>3515.59015</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1503.7201</v>
+        <v>1709.3481</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>523.96761</v>
+        <v>844.4792199999999</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>15835.30452</v>
+        <v>16778.72397</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>200.07745</v>
+        <v>2866.69867</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>2265.41276</v>
+        <v>4424.67688</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>1293.84562</v>
+        <v>2029.75538</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>3951.56047</v>
+        <v>3983.51562</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>4219.86064</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>8229.73827</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>3024.59</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>143.42047</v>
+        <v>2550.63229</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>98.27095</v>
+        <v>140.26108</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>131.8328</v>
+        <v>561.73169</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>55.41933</v>
+        <v>1016.65383</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>79.22846000000001</v>
+        <v>5263.495900000001</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>672.52721</v>
+        <v>1441.03015</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>1100.94714</v>
+        <v>1514.39051</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>616.23153</v>
+        <v>902.11805</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>69.79033</v>
+        <v>10154.18291</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>78.75131</v>
+        <v>432.5875</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>490.46202</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>537.17116</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>3586.707</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>11170.93677</v>
+        <v>43722.1278</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>12576.93169</v>
+        <v>36847.97139999999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>18087.49363</v>
+        <v>68432.83310999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>8895.582060000001</v>
+        <v>40490.15447</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>15704.52615</v>
+        <v>74280.77441</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>18521.62675</v>
+        <v>77900.92221</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>24934.10693</v>
+        <v>82929.89599999999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>13756.17846</v>
+        <v>77010.46122999999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>20650.72993</v>
+        <v>84530.11010999999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>182836.70867</v>
+        <v>407693.2301</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>64351.71844</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>506221.12353</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1049864.517</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>95.88397000000001</v>
+        <v>201.50762</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>8.817440000000001</v>
+        <v>20.90705</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>179.51566</v>
+        <v>1016.73167</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>4.61065</v>
+        <v>198.39169</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>11.56976</v>
+        <v>39.6266</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>20.4299</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>34.21684</v>
+        <v>35.1417</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>115.5957</v>
+        <v>193.13588</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>0.00612</v>
+        <v>1.24971</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>205.55221</v>
+        <v>205.5907</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>69.14638000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>69.4308</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>64.997</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>29.01773</v>
+        <v>29.03633</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>21.42891</v>
@@ -2402,16 +2493,16 @@
         <v>52.85316</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>13.65837</v>
+        <v>21.39336</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>19.75519</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>6.22634</v>
+        <v>14.69386</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>2e-05</v>
+        <v>5.14075</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>4e-05</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>22.96766</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>127.166</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2848.88071</v>
+        <v>4110.96533</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2104.63674</v>
+        <v>7329.99147</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>4413.94772</v>
+        <v>199950.3974</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>3536.27629</v>
+        <v>6111.90319</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>3311.3562</v>
+        <v>7641.186360000001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>3205.81574</v>
+        <v>10288.00208</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3188.49463</v>
+        <v>8930.553870000002</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>5971.70091</v>
+        <v>9967.28861</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>7621.68277</v>
+        <v>11408.39656</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>6109.129220000001</v>
+        <v>9355.53385</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>6159.99856</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>106539.33485</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>147417.402</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>13768.05161</v>
+        <v>31618.53376</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>11414.26972</v>
+        <v>37288.10567</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>14519.9534</v>
+        <v>103201.2079</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>16053.8736</v>
+        <v>44523.85511</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>15129.77681</v>
+        <v>50621.09761</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>16633.91776</v>
+        <v>38037.48825</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>19641.00503</v>
+        <v>44337.33036</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>19936.07177</v>
+        <v>52359.11654</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>20350.70511</v>
+        <v>49890.62614</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>56056.72854</v>
+        <v>106992.21618</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>55467.02479</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>219025.43695</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>125504.461</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>13087.08481</v>
+        <v>22141.20002</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>10981.78057</v>
+        <v>19732.12603</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>13655.80629</v>
+        <v>25794.67257</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>15491.48191</v>
+        <v>32141.43893</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>14498.79428</v>
+        <v>34994.9895</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>16121.50191</v>
+        <v>28691.06388</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>18994.41753</v>
+        <v>36400.2425</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>19271.73067</v>
+        <v>44393.14162</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>19441.36144</v>
+        <v>45194.3273</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>53461.7241</v>
+        <v>99713.75144999998</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>53924.7939</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>210995.39613</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>121098.407</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>680.9667999999999</v>
+        <v>9477.333739999998</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>432.48915</v>
+        <v>17555.97964</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>864.14711</v>
+        <v>77406.53533000001</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>562.3916899999999</v>
+        <v>12382.41618</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>630.98253</v>
+        <v>15626.10811</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>512.41585</v>
+        <v>9346.424369999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>646.5875</v>
+        <v>7937.08786</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>664.3411000000001</v>
+        <v>7965.97492</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>909.3436700000001</v>
+        <v>4696.298839999999</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>2595.004440000001</v>
+        <v>7278.464730000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1542.23089</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>8030.04082</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>4406.054</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-1809.68714</v>
+        <v>-10222.25416</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-2987.72987</v>
+        <v>339102.59002</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-12314.77542</v>
+        <v>-228256.98099</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-31949.87633</v>
+        <v>134830.38283</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-36971.25998</v>
+        <v>-60207.27467</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-63796.79654</v>
+        <v>-66990.64870999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-66905.37432999999</v>
+        <v>-73704.29340000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-112177.93151</v>
+        <v>-128451.98307</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-91940.80276000001</v>
+        <v>-124935.70643</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-112333.90073</v>
+        <v>-189820.39859</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-164690.86702</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-457210.5424399999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-739107.8959999999</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>14296.64621</v>
+        <v>25061.71453</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>13493.14605</v>
+        <v>48402.76233999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>15353.31229</v>
+        <v>162757.9393</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>14895.87952</v>
+        <v>37761.28965000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>22846.00237</v>
+        <v>40564.98225</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>24174.18995</v>
+        <v>57264.99666</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>20128.84913</v>
+        <v>49850.66006</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>25855.93082</v>
+        <v>67863.1439</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>29412.39204</v>
+        <v>57301.5282</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>54573.4595</v>
+        <v>94578.69252000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>69506.36696000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>220914.39443</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>378629.632</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>109.53886</v>
+        <v>408.36907</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>381.65794</v>
+        <v>496.4982199999999</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>198.73037</v>
+        <v>521.8435999999999</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>331.16928</v>
+        <v>468.42969</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>156.88866</v>
+        <v>173.70481</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>291.64604</v>
+        <v>300.05518</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>338.00729</v>
+        <v>821.0765</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>17.23433</v>
+        <v>30.21462</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>21.87919</v>
+        <v>108.06337</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>711.2798200000001</v>
+        <v>793.02029</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>272.61386</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>320.10476</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1333.712</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>14187.10735</v>
+        <v>24653.34546</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>13111.48811</v>
+        <v>47906.26412</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>15154.58192</v>
+        <v>162236.0957</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>14564.71024</v>
+        <v>37292.85996</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>22689.11371</v>
+        <v>40391.27744</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>23882.54391</v>
+        <v>56964.94148</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>19790.84184</v>
+        <v>49029.58356</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>25838.69649</v>
+        <v>67832.92928</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>29390.51285</v>
+        <v>57193.46483</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>53862.17968</v>
+        <v>93785.67223000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>69233.75309999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>220594.28967</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>377295.92</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>18747.53832</v>
+        <v>53385.98451</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>18896.00311</v>
+        <v>38860.82091</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>110826.88542</v>
+        <v>179713.16839</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>16153.94586</v>
+        <v>29659.10872</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>15096.08055</v>
+        <v>46465.38472</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>31385.56348</v>
+        <v>62579.51922000001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>21811.10619</v>
+        <v>32897.02114</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>44898.65048999999</v>
+        <v>74071.60466</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>22329.55572</v>
+        <v>239756.48738</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>106392.89369</v>
+        <v>153318.14439</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>49886.67943</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>139896.77452</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>116175.803</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>166.38381</v>
+        <v>225.27637</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>188.05162</v>
+        <v>206.24187</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>291.15915</v>
+        <v>647.41552</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>316.82568</v>
+        <v>647.2404300000001</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>11.34534</v>
+        <v>4235.9272</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>161.5823</v>
+        <v>376.03629</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1183.52374</v>
+        <v>1396.53058</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1490.41639</v>
+        <v>2240.14462</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1057.39505</v>
+        <v>1375.47678</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1356.23615</v>
+        <v>1975.2728</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1925.86881</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2114.28725</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>2503.935</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>974.0692299999999</v>
+        <v>1746.21604</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>838.79464</v>
+        <v>1016.13984</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1522.38382</v>
+        <v>2865.65375</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1259.65158</v>
+        <v>2776.62038</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1334.29763</v>
+        <v>1488.82811</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>973.41103</v>
+        <v>1658.4401</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2636.96275</v>
+        <v>5091.932470000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>767.40185</v>
+        <v>934.69097</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>556.7153900000001</v>
+        <v>96614.62248999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1313.85197</v>
+        <v>5135.75958</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2134.84431</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3681.44159</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>8910.234</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>17607.08528</v>
+        <v>51414.4921</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>17869.15685</v>
+        <v>37638.43919999999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>109013.34245</v>
+        <v>176200.09912</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>14577.4686</v>
+        <v>26235.24791</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>13750.43758</v>
+        <v>40740.62941</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>30250.57015</v>
+        <v>60545.04283</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>17990.6197</v>
+        <v>26408.55809</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>42640.83225</v>
+        <v>70896.76907000001</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>20715.44528</v>
+        <v>141766.38811</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>103722.80557</v>
+        <v>146207.11201</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>45825.96631</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>134101.04568</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>104761.634</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-6260.57925</v>
+        <v>-38546.52414</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-8390.586929999999</v>
+        <v>348644.53145</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-107788.34855</v>
+        <v>-245212.21008</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-33207.94267</v>
+        <v>142932.56376</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-29221.33816</v>
+        <v>-66107.67714</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-71008.17006999999</v>
+        <v>-72305.17127000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-68587.63139</v>
+        <v>-56750.65448</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-131220.65118</v>
+        <v>-134660.44383</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-84857.96644000002</v>
+        <v>-307390.66561</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-164153.33492</v>
+        <v>-248559.85046</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-145071.17949</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-376192.92253</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-476654.067</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>8545.271710000001</v>
+        <v>11387.73845</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>9214.458199999999</v>
+        <v>16734.85904</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>11178.10035</v>
+        <v>16501.51628</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>10983.90586</v>
+        <v>14088.22148</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>9477.18535</v>
+        <v>13318.32562</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>9976.789570000001</v>
+        <v>13266.77244</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>10814.99911</v>
+        <v>17837.92626</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>9331.71817</v>
+        <v>17040.37773</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>9709.15043</v>
+        <v>14333.34498</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>28170.68919</v>
+        <v>41872.85548</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>31392.17584</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>48787.72762999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>37987.282</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-14805.85096</v>
+        <v>-49934.26259</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-17605.04513</v>
+        <v>331909.6724099999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-118966.4489</v>
+        <v>-261713.72636</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-44191.84853</v>
+        <v>128844.34228</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-38698.52351</v>
+        <v>-79426.00276</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-80984.95964</v>
+        <v>-85571.94370999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-79402.6305</v>
+        <v>-74588.58073999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-140552.36935</v>
+        <v>-151700.82156</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-94567.11687</v>
+        <v>-321724.01059</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-192324.02411</v>
+        <v>-290432.70594</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-176463.35533</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-424980.65016</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-514641.349</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>6331</v>
+        <v>6721</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>6331</v>
+        <v>6779</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>6473</v>
+        <v>6952</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>6260</v>
+        <v>6737</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>5707</v>
+        <v>6160</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>5896</v>
+        <v>6377</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>6262</v>
+        <v>6862</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>6576</v>
+        <v>7226</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>6856</v>
+        <v>7523</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>8358</v>
+        <v>9179</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>8936</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>10278</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>10948</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>